--- a/Power Supply/PSU_Pinout.xlsx
+++ b/Power Supply/PSU_Pinout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\CenturionComputer\Power Supply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8729FDB0-BE86-4FB6-B41A-026026CD7D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD72CC7E-6E5C-411D-9F53-9C66AC31D1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D894595F-7208-43FA-A77B-E215C9F21273}"/>
   </bookViews>
@@ -221,10 +221,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -541,10 +541,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D568E2EB-2551-48D3-8BBA-2C04A74DDB7E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B3:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -566,52 +569,52 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:20">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="L3" s="5" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="L3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
     </row>
     <row r="5" spans="2:20">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="H5" s="4" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="H5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
       <c r="P5" s="1"/>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
     </row>
     <row r="6" spans="2:20">
       <c r="L6" s="1"/>
@@ -801,10 +804,10 @@
       <c r="R10" s="1">
         <v>3</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="S10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T10" s="5"/>
+      <c r="T10" s="4"/>
     </row>
     <row r="11" spans="2:20">
       <c r="C11" s="2" t="s">
@@ -864,19 +867,19 @@
       <c r="R12" s="1">
         <v>5</v>
       </c>
-      <c r="S12" s="5" t="s">
+      <c r="S12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T12" s="5"/>
+      <c r="T12" s="4"/>
     </row>
     <row r="13" spans="2:20">
       <c r="H13" s="1">
         <v>6</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="5"/>
+      <c r="J13" s="4"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -996,6 +999,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="L3:T3"/>
     <mergeCell ref="S10:T10"/>
     <mergeCell ref="S12:T12"/>
     <mergeCell ref="I13:J13"/>
@@ -1003,10 +1008,9 @@
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="M5:O5"/>
     <mergeCell ref="R5:T5"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="L3:T3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="95" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>